--- a/data/CSGN.S^F23/TR.TotalDebtActValue.xlsx
+++ b/data/CSGN.S^F23/TR.TotalDebtActValue.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2011"/>
+  <dimension ref="A1:B2516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5002,3798 +5002,5313 @@
     <row r="1536" spans="1:1">
       <c r="A1536" s="1"/>
     </row>
-    <row r="1537" spans="1:2">
+    <row r="1537" spans="1:1">
       <c r="A1537" s="1"/>
     </row>
-    <row r="1538" spans="1:2">
-      <c r="A1538" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1538">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:2">
-      <c r="A1539" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1539">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:2">
-      <c r="A1540" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1540">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:2">
-      <c r="A1541" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1541">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:2">
-      <c r="A1542" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1542">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:2">
-      <c r="A1543" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1543">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:2">
-      <c r="A1544" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1544">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:2">
-      <c r="A1545" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1545">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:2">
-      <c r="A1546" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1546">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:2">
-      <c r="A1547" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1547">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:2">
-      <c r="A1548" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1548">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:2">
-      <c r="A1549" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1549">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:2">
-      <c r="A1550" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1550">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:2">
-      <c r="A1551" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1551">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:2">
-      <c r="A1552" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1552">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:2">
-      <c r="A1553" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1553">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:2">
-      <c r="A1554" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1554">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:2">
-      <c r="A1555" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1555">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:2">
-      <c r="A1556" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1556">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:2">
-      <c r="A1557" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1557">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:2">
-      <c r="A1558" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1558">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:2">
-      <c r="A1559" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1559">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:2">
-      <c r="A1560" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1560">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:2">
-      <c r="A1561" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1561">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:2">
-      <c r="A1562" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1562">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:2">
-      <c r="A1563" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1563">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:2">
-      <c r="A1564" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1564">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:2">
-      <c r="A1565" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1565">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:2">
-      <c r="A1566" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1566">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:2">
-      <c r="A1567" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1567">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:2">
-      <c r="A1568" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1568">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:2">
-      <c r="A1569" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1569">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:2">
-      <c r="A1570" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1570">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:2">
-      <c r="A1571" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1571">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:2">
-      <c r="A1572" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1572">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:2">
-      <c r="A1573" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1573">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:2">
-      <c r="A1574" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1574">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:2">
-      <c r="A1575" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1575">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:2">
-      <c r="A1576" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1576">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:2">
-      <c r="A1577" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1577">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:2">
-      <c r="A1578" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1578">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:2">
-      <c r="A1579" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1579">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:2">
-      <c r="A1580" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1580">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:2">
-      <c r="A1581" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1581">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:2">
-      <c r="A1582" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1582">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:2">
-      <c r="A1583" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1583">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:2">
-      <c r="A1584" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1584">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:2">
-      <c r="A1585" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1585">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:2">
-      <c r="A1586" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1586">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:2">
-      <c r="A1587" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1587">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:2">
-      <c r="A1588" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1588">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:2">
-      <c r="A1589" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1589">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:2">
-      <c r="A1590" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1590">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:2">
-      <c r="A1591" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1591">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:2">
-      <c r="A1592" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1592">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:2">
-      <c r="A1593" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1593">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:2">
-      <c r="A1594" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1594">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:2">
-      <c r="A1595" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1595">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:2">
-      <c r="A1596" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1596">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:2">
-      <c r="A1597" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1597">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:2">
-      <c r="A1598" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1598">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:2">
-      <c r="A1599" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1599">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:2">
-      <c r="A1600" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1600">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:2">
-      <c r="A1601" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1601">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:2">
-      <c r="A1602" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1602">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:2">
-      <c r="A1603" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1603">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:2">
-      <c r="A1604" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1604">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:2">
-      <c r="A1605" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1605">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:2">
-      <c r="A1606" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1606">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:2">
-      <c r="A1607" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1607">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:2">
-      <c r="A1608" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1608">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:2">
-      <c r="A1609" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1609">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:2">
-      <c r="A1610" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1610">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:2">
-      <c r="A1611" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1611">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:2">
-      <c r="A1612" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1612">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:2">
-      <c r="A1613" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1613">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:2">
-      <c r="A1614" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1614">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:2">
-      <c r="A1615" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1615">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:2">
-      <c r="A1616" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1616">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:2">
-      <c r="A1617" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1617">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:2">
-      <c r="A1618" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1618">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:2">
-      <c r="A1619" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1619">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:2">
-      <c r="A1620" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1620">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:2">
-      <c r="A1621" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1621">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:2">
-      <c r="A1622" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1622">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:2">
-      <c r="A1623" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1623">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:2">
-      <c r="A1624" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1624">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2">
-      <c r="A1625" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1625">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:2">
-      <c r="A1626" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1626">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:2">
-      <c r="A1627" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1627">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:2">
-      <c r="A1628" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1628">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:2">
-      <c r="A1629" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1629">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:2">
-      <c r="A1630" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1630">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:2">
-      <c r="A1631" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1631">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:2">
-      <c r="A1632" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1632">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:2">
-      <c r="A1633" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1633">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:2">
-      <c r="A1634" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1634">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:2">
-      <c r="A1635" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1635">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:2">
-      <c r="A1636" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1636">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:2">
-      <c r="A1637" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1637">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:2">
-      <c r="A1638" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1638">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:2">
-      <c r="A1639" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1639">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:2">
-      <c r="A1640" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1640">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:2">
-      <c r="A1641" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1641">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:2">
-      <c r="A1642" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1642">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:2">
-      <c r="A1643" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1643">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:2">
-      <c r="A1644" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1644">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:2">
-      <c r="A1645" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1645">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:2">
-      <c r="A1646" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1646">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:2">
-      <c r="A1647" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1647">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:2">
-      <c r="A1648" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1648">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:2">
-      <c r="A1649" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1649">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:2">
-      <c r="A1650" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1650">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:2">
-      <c r="A1651" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1651">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:2">
-      <c r="A1652" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1652">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:2">
-      <c r="A1653" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1653">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:2">
-      <c r="A1654" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1654">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:2">
-      <c r="A1655" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1655">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:2">
-      <c r="A1656" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1656">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2">
-      <c r="A1657" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1657">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:2">
-      <c r="A1658" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1658">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:2">
-      <c r="A1659" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1659">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:2">
-      <c r="A1660" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1660">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2">
-      <c r="A1661" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1661">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2">
-      <c r="A1662" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1662">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2">
-      <c r="A1663" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1663">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:2">
-      <c r="A1664" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1664">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:2">
-      <c r="A1665" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1665">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:2">
-      <c r="A1666" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1666">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:2">
-      <c r="A1667" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1667">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:2">
-      <c r="A1668" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1668">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:2">
-      <c r="A1669" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1669">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:2">
-      <c r="A1670" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1670">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:2">
-      <c r="A1671" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1671">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:2">
-      <c r="A1672" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1672">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:2">
-      <c r="A1673" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1673">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:2">
-      <c r="A1674" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1674">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:2">
-      <c r="A1675" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1675">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:2">
-      <c r="A1676" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1676">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2">
-      <c r="A1677" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1677">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:2">
-      <c r="A1678" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1678">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2">
-      <c r="A1679" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1679">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:2">
-      <c r="A1680" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1680">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:2">
-      <c r="A1681" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1681">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:2">
-      <c r="A1682" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1682">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:2">
-      <c r="A1683" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1683">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:2">
-      <c r="A1684" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1684">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:2">
-      <c r="A1685" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1685">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:2">
-      <c r="A1686" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1686">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:2">
-      <c r="A1687" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1687">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:2">
-      <c r="A1688" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1688">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:2">
-      <c r="A1689" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1689">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:2">
-      <c r="A1690" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1690">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:2">
-      <c r="A1691" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1691">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:2">
-      <c r="A1692" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1692">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:2">
-      <c r="A1693" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1693">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:2">
-      <c r="A1694" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1694">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2">
-      <c r="A1695" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1695">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:2">
-      <c r="A1696" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1696">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:2">
-      <c r="A1697" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1697">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:2">
-      <c r="A1698" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1698">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:2">
-      <c r="A1699" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1699">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:2">
-      <c r="A1700" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1700">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:2">
-      <c r="A1701" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1701">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:2">
-      <c r="A1702" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1702">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:2">
-      <c r="A1703" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1703">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:2">
-      <c r="A1704" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1704">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:2">
-      <c r="A1705" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1705">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:2">
-      <c r="A1706" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1706">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:2">
-      <c r="A1707" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1707">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:2">
-      <c r="A1708" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1708">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:2">
-      <c r="A1709" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1709">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:2">
-      <c r="A1710" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1710">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:2">
-      <c r="A1711" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1711">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:2">
-      <c r="A1712" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1712">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:2">
-      <c r="A1713" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1713">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:2">
-      <c r="A1714" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1714">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:2">
-      <c r="A1715" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1715">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:2">
-      <c r="A1716" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1716">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:2">
-      <c r="A1717" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1717">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:2">
-      <c r="A1718" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1718">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:2">
-      <c r="A1719" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1719">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:2">
-      <c r="A1720" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1720">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:2">
-      <c r="A1721" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1721">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:2">
-      <c r="A1722" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1722">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:2">
-      <c r="A1723" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1723">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:2">
-      <c r="A1724" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1724">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:2">
-      <c r="A1725" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1725">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:2">
-      <c r="A1726" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1726">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:2">
-      <c r="A1727" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1727">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:2">
-      <c r="A1728" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1728">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:2">
-      <c r="A1729" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1729">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:2">
-      <c r="A1730" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1730">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:2">
-      <c r="A1731" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1731">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:2">
-      <c r="A1732" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1732">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:2">
-      <c r="A1733" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1733">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:2">
-      <c r="A1734" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1734">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:2">
-      <c r="A1735" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1735">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:2">
-      <c r="A1736" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1736">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:2">
-      <c r="A1737" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1737">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:2">
-      <c r="A1738" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1738">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:2">
-      <c r="A1739" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1739">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:2">
-      <c r="A1740" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1740">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:2">
-      <c r="A1741" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1741">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:2">
-      <c r="A1742" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1742">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:2">
-      <c r="A1743" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1743">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:2">
-      <c r="A1744" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1744">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:2">
-      <c r="A1745" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1745">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:2">
-      <c r="A1746" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1746">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:2">
-      <c r="A1747" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1747">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:2">
-      <c r="A1748" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1748">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:2">
-      <c r="A1749" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1749">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:2">
-      <c r="A1750" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1750">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:2">
-      <c r="A1751" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1751">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2">
-      <c r="A1752" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1752">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:2">
-      <c r="A1753" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1753">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:2">
-      <c r="A1754" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1754">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:2">
-      <c r="A1755" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1755">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:2">
-      <c r="A1756" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1756">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:2">
-      <c r="A1757" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1757">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:2">
-      <c r="A1758" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1758">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:2">
-      <c r="A1759" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1759">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:2">
-      <c r="A1760" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1760">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:2">
-      <c r="A1761" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1761">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:2">
-      <c r="A1762" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1762">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:2">
-      <c r="A1763" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1763">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:2">
-      <c r="A1764" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1764">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:2">
-      <c r="A1765" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1765">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:2">
-      <c r="A1766" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1766">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:2">
-      <c r="A1767" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1767">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:2">
-      <c r="A1768" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1768">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:2">
-      <c r="A1769" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1769">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:2">
-      <c r="A1770" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1770">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:2">
-      <c r="A1771" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1771">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:2">
-      <c r="A1772" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1772">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:2">
-      <c r="A1773" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1773">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:2">
-      <c r="A1774" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1774">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:2">
-      <c r="A1775" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1775">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:2">
-      <c r="A1776" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1776">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:2">
-      <c r="A1777" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1777">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:2">
-      <c r="A1778" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1778">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:2">
-      <c r="A1779" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1779">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:2">
-      <c r="A1780" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1780">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:2">
-      <c r="A1781" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1781">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:2">
-      <c r="A1782" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1782">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:2">
-      <c r="A1783" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1783">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:2">
-      <c r="A1784" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1784">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:2">
-      <c r="A1785" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1785">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:2">
-      <c r="A1786" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1786">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:2">
-      <c r="A1787" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1787">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:2">
-      <c r="A1788" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1788">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:2">
-      <c r="A1789" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1789">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:2">
-      <c r="A1790" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1790">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:2">
-      <c r="A1791" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1791">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:2">
-      <c r="A1792" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1792">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:2">
-      <c r="A1793" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1793">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:2">
-      <c r="A1794" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1794">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:2">
-      <c r="A1795" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1795">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:2">
-      <c r="A1796" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1796">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:2">
-      <c r="A1797" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1797">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:2">
-      <c r="A1798" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1798">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:2">
-      <c r="A1799" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1799">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:2">
-      <c r="A1800" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1800">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:2">
-      <c r="A1801" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1801">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:2">
-      <c r="A1802" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1802">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:2">
-      <c r="A1803" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1803">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:2">
-      <c r="A1804" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1804">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:2">
-      <c r="A1805" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1805">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:2">
-      <c r="A1806" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1806">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:2">
-      <c r="A1807" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1807">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:2">
-      <c r="A1808" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1808">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:2">
-      <c r="A1809" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1809">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:2">
-      <c r="A1810" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1810">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:2">
-      <c r="A1811" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1811">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:2">
-      <c r="A1812" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1812">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:2">
-      <c r="A1813" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1813">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:2">
-      <c r="A1814" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1814">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:2">
-      <c r="A1815" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1815">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:2">
-      <c r="A1816" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1816">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:2">
-      <c r="A1817" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1817">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:2">
-      <c r="A1818" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1818">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:2">
-      <c r="A1819" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1819">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:2">
-      <c r="A1820" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1820">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:2">
-      <c r="A1821" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1821">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:2">
-      <c r="A1822" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1822">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:2">
-      <c r="A1823" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1823">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:2">
-      <c r="A1824" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1824">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:2">
-      <c r="A1825" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1825">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:2">
-      <c r="A1826" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1826">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:2">
-      <c r="A1827" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1827">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:2">
-      <c r="A1828" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1828">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:2">
-      <c r="A1829" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1829">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:2">
-      <c r="A1830" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1830">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:2">
-      <c r="A1831" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1831">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:2">
-      <c r="A1832" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1832">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:2">
-      <c r="A1833" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1833">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:2">
-      <c r="A1834" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1834">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:2">
-      <c r="A1835" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1835">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:2">
-      <c r="A1836" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1836">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:2">
-      <c r="A1837" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1837">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:2">
-      <c r="A1838" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1838">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:2">
-      <c r="A1839" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1839">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:2">
-      <c r="A1840" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1840">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:2">
-      <c r="A1841" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1841">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:2">
-      <c r="A1842" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1842">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:2">
-      <c r="A1843" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1843">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:2">
-      <c r="A1844" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1844">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:2">
-      <c r="A1845" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1845">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:2">
-      <c r="A1846" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1846">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:2">
-      <c r="A1847" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1847">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:2">
-      <c r="A1848" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1848">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:2">
-      <c r="A1849" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1849">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:2">
-      <c r="A1850" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1850">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:2">
-      <c r="A1851" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1851">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:2">
-      <c r="A1852" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1852">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:2">
-      <c r="A1853" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1853">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:2">
-      <c r="A1854" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1854">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:2">
-      <c r="A1855" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1855">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:2">
-      <c r="A1856" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1856">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:2">
-      <c r="A1857" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1857">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:2">
-      <c r="A1858" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1858">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:2">
-      <c r="A1859" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1859">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:2">
-      <c r="A1860" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1860">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:2">
-      <c r="A1861" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1861">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:2">
-      <c r="A1862" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1862">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:2">
-      <c r="A1863" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1863">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:2">
-      <c r="A1864" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1864">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:2">
-      <c r="A1865" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1865">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:2">
-      <c r="A1866" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1866">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:2">
-      <c r="A1867" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1867">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:2">
-      <c r="A1868" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1868">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:2">
-      <c r="A1869" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1869">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:2">
-      <c r="A1870" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1870">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:2">
-      <c r="A1871" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1871">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:2">
-      <c r="A1872" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1872">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:2">
-      <c r="A1873" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1873">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:2">
-      <c r="A1874" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1874">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:2">
-      <c r="A1875" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1875">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:2">
-      <c r="A1876" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1876">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:2">
-      <c r="A1877" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1877">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:2">
-      <c r="A1878" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1878">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:2">
-      <c r="A1879" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1879">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:2">
-      <c r="A1880" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1880">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:2">
-      <c r="A1881" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1881">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:2">
-      <c r="A1882" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1882">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:2">
-      <c r="A1883" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1883">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:2">
-      <c r="A1884" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1884">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:2">
-      <c r="A1885" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1885">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:2">
-      <c r="A1886" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1886">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:2">
-      <c r="A1887" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1887">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:2">
-      <c r="A1888" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1888">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:2">
-      <c r="A1889" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1889">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:2">
-      <c r="A1890" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1890">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:2">
-      <c r="A1891" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1891">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:2">
-      <c r="A1892" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1892">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:2">
-      <c r="A1893" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1893">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:2">
-      <c r="A1894" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1894">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:2">
-      <c r="A1895" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1895">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:2">
-      <c r="A1896" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1896">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:2">
-      <c r="A1897" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1897">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:2">
-      <c r="A1898" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1898">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:2">
-      <c r="A1899" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1899">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:2">
-      <c r="A1900" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1900">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:2">
-      <c r="A1901" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1901">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:2">
-      <c r="A1902" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1902">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:2">
-      <c r="A1903" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1903">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:2">
-      <c r="A1904" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1904">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:2">
-      <c r="A1905" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1905">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:2">
-      <c r="A1906" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1906">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:2">
-      <c r="A1907" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1907">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:2">
-      <c r="A1908" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1908">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:2">
-      <c r="A1909" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1909">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:2">
-      <c r="A1910" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1910">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:2">
-      <c r="A1911" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1911">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:2">
-      <c r="A1912" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1912">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:2">
-      <c r="A1913" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1913">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:2">
-      <c r="A1914" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1914">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:2">
-      <c r="A1915" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1915">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:2">
-      <c r="A1916" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1916">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:2">
-      <c r="A1917" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1917">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:2">
-      <c r="A1918" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1918">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:2">
-      <c r="A1919" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1919">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:2">
-      <c r="A1920" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1920">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:2">
-      <c r="A1921" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1921">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:2">
-      <c r="A1922" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1922">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:2">
-      <c r="A1923" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1923">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:2">
-      <c r="A1924" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1924">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:2">
-      <c r="A1925" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1925">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:2">
-      <c r="A1926" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1926">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:2">
-      <c r="A1927" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1927">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:2">
-      <c r="A1928" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1928">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:2">
-      <c r="A1929" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1929">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:2">
-      <c r="A1930" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1930">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:2">
-      <c r="A1931" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1931">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:2">
-      <c r="A1932" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1932">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:2">
-      <c r="A1933" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1933">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:2">
-      <c r="A1934" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1934">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:2">
-      <c r="A1935" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1935">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:2">
-      <c r="A1936" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1936">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:2">
-      <c r="A1937" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1937">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:2">
-      <c r="A1938" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1938">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:2">
-      <c r="A1939" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1939">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:2">
-      <c r="A1940" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1940">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:2">
-      <c r="A1941" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1941">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:2">
-      <c r="A1942" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1942">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:2">
-      <c r="A1943" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1943">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:2">
-      <c r="A1944" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1944">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:2">
-      <c r="A1945" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1945">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:2">
-      <c r="A1946" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1946">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:2">
-      <c r="A1947" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1947">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:2">
-      <c r="A1948" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1948">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:2">
-      <c r="A1949" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1949">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:2">
-      <c r="A1950" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1950">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:2">
-      <c r="A1951" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1951">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:2">
-      <c r="A1952" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1952">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:2">
-      <c r="A1953" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1953">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:2">
-      <c r="A1954" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1954">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:2">
-      <c r="A1955" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1955">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:2">
-      <c r="A1956" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1956">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:2">
-      <c r="A1957" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1957">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:2">
-      <c r="A1958" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1958">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:2">
-      <c r="A1959" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1959">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:2">
-      <c r="A1960" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1960">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:2">
-      <c r="A1961" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1961">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:2">
-      <c r="A1962" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1962">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:2">
-      <c r="A1963" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1963">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:2">
-      <c r="A1964" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1964">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:2">
-      <c r="A1965" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1965">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:2">
-      <c r="A1966" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1966">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:2">
-      <c r="A1967" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1967">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:2">
-      <c r="A1968" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1968">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:2">
-      <c r="A1969" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1969">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:2">
-      <c r="A1970" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1970">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:2">
-      <c r="A1971" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1971">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:2">
-      <c r="A1972" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1972">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:2">
-      <c r="A1973" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1973">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:2">
-      <c r="A1974" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1974">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:2">
-      <c r="A1975" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1975">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:2">
-      <c r="A1976" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1976">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:2">
-      <c r="A1977" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1977">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:2">
-      <c r="A1978" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1978">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:2">
-      <c r="A1979" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1979">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:2">
-      <c r="A1980" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1980">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:2">
-      <c r="A1981" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1981">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:2">
-      <c r="A1982" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1982">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:2">
-      <c r="A1983" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1983">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:2">
-      <c r="A1984" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1984">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:2">
-      <c r="A1985" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1985">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:2">
-      <c r="A1986" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1986">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:2">
-      <c r="A1987" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1987">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:2">
-      <c r="A1988" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1988">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:2">
-      <c r="A1989" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1989">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:2">
-      <c r="A1990" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1990">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:2">
-      <c r="A1991" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1991">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:2">
-      <c r="A1992" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1992">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:2">
-      <c r="A1993" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1993">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:2">
-      <c r="A1994" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1994">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:2">
-      <c r="A1995" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1995">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:2">
-      <c r="A1996" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1996">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:2">
-      <c r="A1997" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1997">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:2">
-      <c r="A1998" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1998">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:2">
-      <c r="A1999" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1999">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:2">
-      <c r="A2000" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2000">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:2">
-      <c r="A2001" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2001">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:2">
-      <c r="A2002" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2002">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:2">
-      <c r="A2003" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2003">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:2">
-      <c r="A2004" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2004">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:2">
-      <c r="A2005" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2005">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:2">
-      <c r="A2006" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2006">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:2">
-      <c r="A2007" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2007">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:2">
-      <c r="A2008" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2008">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:2">
-      <c r="A2009" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2009">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:2">
-      <c r="A2010" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2010">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:2">
-      <c r="A2011" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B2011">
+    <row r="1538" spans="1:1">
+      <c r="A1538" s="1"/>
+    </row>
+    <row r="1539" spans="1:1">
+      <c r="A1539" s="1"/>
+    </row>
+    <row r="1540" spans="1:1">
+      <c r="A1540" s="1"/>
+    </row>
+    <row r="1541" spans="1:1">
+      <c r="A1541" s="1"/>
+    </row>
+    <row r="1542" spans="1:1">
+      <c r="A1542" s="1"/>
+    </row>
+    <row r="1543" spans="1:1">
+      <c r="A1543" s="1"/>
+    </row>
+    <row r="1544" spans="1:1">
+      <c r="A1544" s="1"/>
+    </row>
+    <row r="1545" spans="1:1">
+      <c r="A1545" s="1"/>
+    </row>
+    <row r="1546" spans="1:1">
+      <c r="A1546" s="1"/>
+    </row>
+    <row r="1547" spans="1:1">
+      <c r="A1547" s="1"/>
+    </row>
+    <row r="1548" spans="1:1">
+      <c r="A1548" s="1"/>
+    </row>
+    <row r="1549" spans="1:1">
+      <c r="A1549" s="1"/>
+    </row>
+    <row r="1550" spans="1:1">
+      <c r="A1550" s="1"/>
+    </row>
+    <row r="1551" spans="1:1">
+      <c r="A1551" s="1"/>
+    </row>
+    <row r="1552" spans="1:1">
+      <c r="A1552" s="1"/>
+    </row>
+    <row r="1553" spans="1:1">
+      <c r="A1553" s="1"/>
+    </row>
+    <row r="1554" spans="1:1">
+      <c r="A1554" s="1"/>
+    </row>
+    <row r="1555" spans="1:1">
+      <c r="A1555" s="1"/>
+    </row>
+    <row r="1556" spans="1:1">
+      <c r="A1556" s="1"/>
+    </row>
+    <row r="1557" spans="1:1">
+      <c r="A1557" s="1"/>
+    </row>
+    <row r="1558" spans="1:1">
+      <c r="A1558" s="1"/>
+    </row>
+    <row r="1559" spans="1:1">
+      <c r="A1559" s="1"/>
+    </row>
+    <row r="1560" spans="1:1">
+      <c r="A1560" s="1"/>
+    </row>
+    <row r="1561" spans="1:1">
+      <c r="A1561" s="1"/>
+    </row>
+    <row r="1562" spans="1:1">
+      <c r="A1562" s="1"/>
+    </row>
+    <row r="1563" spans="1:1">
+      <c r="A1563" s="1"/>
+    </row>
+    <row r="1564" spans="1:1">
+      <c r="A1564" s="1"/>
+    </row>
+    <row r="1565" spans="1:1">
+      <c r="A1565" s="1"/>
+    </row>
+    <row r="1566" spans="1:1">
+      <c r="A1566" s="1"/>
+    </row>
+    <row r="1567" spans="1:1">
+      <c r="A1567" s="1"/>
+    </row>
+    <row r="1568" spans="1:1">
+      <c r="A1568" s="1"/>
+    </row>
+    <row r="1569" spans="1:1">
+      <c r="A1569" s="1"/>
+    </row>
+    <row r="1570" spans="1:1">
+      <c r="A1570" s="1"/>
+    </row>
+    <row r="1571" spans="1:1">
+      <c r="A1571" s="1"/>
+    </row>
+    <row r="1572" spans="1:1">
+      <c r="A1572" s="1"/>
+    </row>
+    <row r="1573" spans="1:1">
+      <c r="A1573" s="1"/>
+    </row>
+    <row r="1574" spans="1:1">
+      <c r="A1574" s="1"/>
+    </row>
+    <row r="1575" spans="1:1">
+      <c r="A1575" s="1"/>
+    </row>
+    <row r="1576" spans="1:1">
+      <c r="A1576" s="1"/>
+    </row>
+    <row r="1577" spans="1:1">
+      <c r="A1577" s="1"/>
+    </row>
+    <row r="1578" spans="1:1">
+      <c r="A1578" s="1"/>
+    </row>
+    <row r="1579" spans="1:1">
+      <c r="A1579" s="1"/>
+    </row>
+    <row r="1580" spans="1:1">
+      <c r="A1580" s="1"/>
+    </row>
+    <row r="1581" spans="1:1">
+      <c r="A1581" s="1"/>
+    </row>
+    <row r="1582" spans="1:1">
+      <c r="A1582" s="1"/>
+    </row>
+    <row r="1583" spans="1:1">
+      <c r="A1583" s="1"/>
+    </row>
+    <row r="1584" spans="1:1">
+      <c r="A1584" s="1"/>
+    </row>
+    <row r="1585" spans="1:1">
+      <c r="A1585" s="1"/>
+    </row>
+    <row r="1586" spans="1:1">
+      <c r="A1586" s="1"/>
+    </row>
+    <row r="1587" spans="1:1">
+      <c r="A1587" s="1"/>
+    </row>
+    <row r="1588" spans="1:1">
+      <c r="A1588" s="1"/>
+    </row>
+    <row r="1589" spans="1:1">
+      <c r="A1589" s="1"/>
+    </row>
+    <row r="1590" spans="1:1">
+      <c r="A1590" s="1"/>
+    </row>
+    <row r="1591" spans="1:1">
+      <c r="A1591" s="1"/>
+    </row>
+    <row r="1592" spans="1:1">
+      <c r="A1592" s="1"/>
+    </row>
+    <row r="1593" spans="1:1">
+      <c r="A1593" s="1"/>
+    </row>
+    <row r="1594" spans="1:1">
+      <c r="A1594" s="1"/>
+    </row>
+    <row r="1595" spans="1:1">
+      <c r="A1595" s="1"/>
+    </row>
+    <row r="1596" spans="1:1">
+      <c r="A1596" s="1"/>
+    </row>
+    <row r="1597" spans="1:1">
+      <c r="A1597" s="1"/>
+    </row>
+    <row r="1598" spans="1:1">
+      <c r="A1598" s="1"/>
+    </row>
+    <row r="1599" spans="1:1">
+      <c r="A1599" s="1"/>
+    </row>
+    <row r="1600" spans="1:1">
+      <c r="A1600" s="1"/>
+    </row>
+    <row r="1601" spans="1:1">
+      <c r="A1601" s="1"/>
+    </row>
+    <row r="1602" spans="1:1">
+      <c r="A1602" s="1"/>
+    </row>
+    <row r="1603" spans="1:1">
+      <c r="A1603" s="1"/>
+    </row>
+    <row r="1604" spans="1:1">
+      <c r="A1604" s="1"/>
+    </row>
+    <row r="1605" spans="1:1">
+      <c r="A1605" s="1"/>
+    </row>
+    <row r="1606" spans="1:1">
+      <c r="A1606" s="1"/>
+    </row>
+    <row r="1607" spans="1:1">
+      <c r="A1607" s="1"/>
+    </row>
+    <row r="1608" spans="1:1">
+      <c r="A1608" s="1"/>
+    </row>
+    <row r="1609" spans="1:1">
+      <c r="A1609" s="1"/>
+    </row>
+    <row r="1610" spans="1:1">
+      <c r="A1610" s="1"/>
+    </row>
+    <row r="1611" spans="1:1">
+      <c r="A1611" s="1"/>
+    </row>
+    <row r="1612" spans="1:1">
+      <c r="A1612" s="1"/>
+    </row>
+    <row r="1613" spans="1:1">
+      <c r="A1613" s="1"/>
+    </row>
+    <row r="1614" spans="1:1">
+      <c r="A1614" s="1"/>
+    </row>
+    <row r="1615" spans="1:1">
+      <c r="A1615" s="1"/>
+    </row>
+    <row r="1616" spans="1:1">
+      <c r="A1616" s="1"/>
+    </row>
+    <row r="1617" spans="1:1">
+      <c r="A1617" s="1"/>
+    </row>
+    <row r="1618" spans="1:1">
+      <c r="A1618" s="1"/>
+    </row>
+    <row r="1619" spans="1:1">
+      <c r="A1619" s="1"/>
+    </row>
+    <row r="1620" spans="1:1">
+      <c r="A1620" s="1"/>
+    </row>
+    <row r="1621" spans="1:1">
+      <c r="A1621" s="1"/>
+    </row>
+    <row r="1622" spans="1:1">
+      <c r="A1622" s="1"/>
+    </row>
+    <row r="1623" spans="1:1">
+      <c r="A1623" s="1"/>
+    </row>
+    <row r="1624" spans="1:1">
+      <c r="A1624" s="1"/>
+    </row>
+    <row r="1625" spans="1:1">
+      <c r="A1625" s="1"/>
+    </row>
+    <row r="1626" spans="1:1">
+      <c r="A1626" s="1"/>
+    </row>
+    <row r="1627" spans="1:1">
+      <c r="A1627" s="1"/>
+    </row>
+    <row r="1628" spans="1:1">
+      <c r="A1628" s="1"/>
+    </row>
+    <row r="1629" spans="1:1">
+      <c r="A1629" s="1"/>
+    </row>
+    <row r="1630" spans="1:1">
+      <c r="A1630" s="1"/>
+    </row>
+    <row r="1631" spans="1:1">
+      <c r="A1631" s="1"/>
+    </row>
+    <row r="1632" spans="1:1">
+      <c r="A1632" s="1"/>
+    </row>
+    <row r="1633" spans="1:1">
+      <c r="A1633" s="1"/>
+    </row>
+    <row r="1634" spans="1:1">
+      <c r="A1634" s="1"/>
+    </row>
+    <row r="1635" spans="1:1">
+      <c r="A1635" s="1"/>
+    </row>
+    <row r="1636" spans="1:1">
+      <c r="A1636" s="1"/>
+    </row>
+    <row r="1637" spans="1:1">
+      <c r="A1637" s="1"/>
+    </row>
+    <row r="1638" spans="1:1">
+      <c r="A1638" s="1"/>
+    </row>
+    <row r="1639" spans="1:1">
+      <c r="A1639" s="1"/>
+    </row>
+    <row r="1640" spans="1:1">
+      <c r="A1640" s="1"/>
+    </row>
+    <row r="1641" spans="1:1">
+      <c r="A1641" s="1"/>
+    </row>
+    <row r="1642" spans="1:1">
+      <c r="A1642" s="1"/>
+    </row>
+    <row r="1643" spans="1:1">
+      <c r="A1643" s="1"/>
+    </row>
+    <row r="1644" spans="1:1">
+      <c r="A1644" s="1"/>
+    </row>
+    <row r="1645" spans="1:1">
+      <c r="A1645" s="1"/>
+    </row>
+    <row r="1646" spans="1:1">
+      <c r="A1646" s="1"/>
+    </row>
+    <row r="1647" spans="1:1">
+      <c r="A1647" s="1"/>
+    </row>
+    <row r="1648" spans="1:1">
+      <c r="A1648" s="1"/>
+    </row>
+    <row r="1649" spans="1:1">
+      <c r="A1649" s="1"/>
+    </row>
+    <row r="1650" spans="1:1">
+      <c r="A1650" s="1"/>
+    </row>
+    <row r="1651" spans="1:1">
+      <c r="A1651" s="1"/>
+    </row>
+    <row r="1652" spans="1:1">
+      <c r="A1652" s="1"/>
+    </row>
+    <row r="1653" spans="1:1">
+      <c r="A1653" s="1"/>
+    </row>
+    <row r="1654" spans="1:1">
+      <c r="A1654" s="1"/>
+    </row>
+    <row r="1655" spans="1:1">
+      <c r="A1655" s="1"/>
+    </row>
+    <row r="1656" spans="1:1">
+      <c r="A1656" s="1"/>
+    </row>
+    <row r="1657" spans="1:1">
+      <c r="A1657" s="1"/>
+    </row>
+    <row r="1658" spans="1:1">
+      <c r="A1658" s="1"/>
+    </row>
+    <row r="1659" spans="1:1">
+      <c r="A1659" s="1"/>
+    </row>
+    <row r="1660" spans="1:1">
+      <c r="A1660" s="1"/>
+    </row>
+    <row r="1661" spans="1:1">
+      <c r="A1661" s="1"/>
+    </row>
+    <row r="1662" spans="1:1">
+      <c r="A1662" s="1"/>
+    </row>
+    <row r="1663" spans="1:1">
+      <c r="A1663" s="1"/>
+    </row>
+    <row r="1664" spans="1:1">
+      <c r="A1664" s="1"/>
+    </row>
+    <row r="1665" spans="1:1">
+      <c r="A1665" s="1"/>
+    </row>
+    <row r="1666" spans="1:1">
+      <c r="A1666" s="1"/>
+    </row>
+    <row r="1667" spans="1:1">
+      <c r="A1667" s="1"/>
+    </row>
+    <row r="1668" spans="1:1">
+      <c r="A1668" s="1"/>
+    </row>
+    <row r="1669" spans="1:1">
+      <c r="A1669" s="1"/>
+    </row>
+    <row r="1670" spans="1:1">
+      <c r="A1670" s="1"/>
+    </row>
+    <row r="1671" spans="1:1">
+      <c r="A1671" s="1"/>
+    </row>
+    <row r="1672" spans="1:1">
+      <c r="A1672" s="1"/>
+    </row>
+    <row r="1673" spans="1:1">
+      <c r="A1673" s="1"/>
+    </row>
+    <row r="1674" spans="1:1">
+      <c r="A1674" s="1"/>
+    </row>
+    <row r="1675" spans="1:1">
+      <c r="A1675" s="1"/>
+    </row>
+    <row r="1676" spans="1:1">
+      <c r="A1676" s="1"/>
+    </row>
+    <row r="1677" spans="1:1">
+      <c r="A1677" s="1"/>
+    </row>
+    <row r="1678" spans="1:1">
+      <c r="A1678" s="1"/>
+    </row>
+    <row r="1679" spans="1:1">
+      <c r="A1679" s="1"/>
+    </row>
+    <row r="1680" spans="1:1">
+      <c r="A1680" s="1"/>
+    </row>
+    <row r="1681" spans="1:1">
+      <c r="A1681" s="1"/>
+    </row>
+    <row r="1682" spans="1:1">
+      <c r="A1682" s="1"/>
+    </row>
+    <row r="1683" spans="1:1">
+      <c r="A1683" s="1"/>
+    </row>
+    <row r="1684" spans="1:1">
+      <c r="A1684" s="1"/>
+    </row>
+    <row r="1685" spans="1:1">
+      <c r="A1685" s="1"/>
+    </row>
+    <row r="1686" spans="1:1">
+      <c r="A1686" s="1"/>
+    </row>
+    <row r="1687" spans="1:1">
+      <c r="A1687" s="1"/>
+    </row>
+    <row r="1688" spans="1:1">
+      <c r="A1688" s="1"/>
+    </row>
+    <row r="1689" spans="1:1">
+      <c r="A1689" s="1"/>
+    </row>
+    <row r="1690" spans="1:1">
+      <c r="A1690" s="1"/>
+    </row>
+    <row r="1691" spans="1:1">
+      <c r="A1691" s="1"/>
+    </row>
+    <row r="1692" spans="1:1">
+      <c r="A1692" s="1"/>
+    </row>
+    <row r="1693" spans="1:1">
+      <c r="A1693" s="1"/>
+    </row>
+    <row r="1694" spans="1:1">
+      <c r="A1694" s="1"/>
+    </row>
+    <row r="1695" spans="1:1">
+      <c r="A1695" s="1"/>
+    </row>
+    <row r="1696" spans="1:1">
+      <c r="A1696" s="1"/>
+    </row>
+    <row r="1697" spans="1:1">
+      <c r="A1697" s="1"/>
+    </row>
+    <row r="1698" spans="1:1">
+      <c r="A1698" s="1"/>
+    </row>
+    <row r="1699" spans="1:1">
+      <c r="A1699" s="1"/>
+    </row>
+    <row r="1700" spans="1:1">
+      <c r="A1700" s="1"/>
+    </row>
+    <row r="1701" spans="1:1">
+      <c r="A1701" s="1"/>
+    </row>
+    <row r="1702" spans="1:1">
+      <c r="A1702" s="1"/>
+    </row>
+    <row r="1703" spans="1:1">
+      <c r="A1703" s="1"/>
+    </row>
+    <row r="1704" spans="1:1">
+      <c r="A1704" s="1"/>
+    </row>
+    <row r="1705" spans="1:1">
+      <c r="A1705" s="1"/>
+    </row>
+    <row r="1706" spans="1:1">
+      <c r="A1706" s="1"/>
+    </row>
+    <row r="1707" spans="1:1">
+      <c r="A1707" s="1"/>
+    </row>
+    <row r="1708" spans="1:1">
+      <c r="A1708" s="1"/>
+    </row>
+    <row r="1709" spans="1:1">
+      <c r="A1709" s="1"/>
+    </row>
+    <row r="1710" spans="1:1">
+      <c r="A1710" s="1"/>
+    </row>
+    <row r="1711" spans="1:1">
+      <c r="A1711" s="1"/>
+    </row>
+    <row r="1712" spans="1:1">
+      <c r="A1712" s="1"/>
+    </row>
+    <row r="1713" spans="1:1">
+      <c r="A1713" s="1"/>
+    </row>
+    <row r="1714" spans="1:1">
+      <c r="A1714" s="1"/>
+    </row>
+    <row r="1715" spans="1:1">
+      <c r="A1715" s="1"/>
+    </row>
+    <row r="1716" spans="1:1">
+      <c r="A1716" s="1"/>
+    </row>
+    <row r="1717" spans="1:1">
+      <c r="A1717" s="1"/>
+    </row>
+    <row r="1718" spans="1:1">
+      <c r="A1718" s="1"/>
+    </row>
+    <row r="1719" spans="1:1">
+      <c r="A1719" s="1"/>
+    </row>
+    <row r="1720" spans="1:1">
+      <c r="A1720" s="1"/>
+    </row>
+    <row r="1721" spans="1:1">
+      <c r="A1721" s="1"/>
+    </row>
+    <row r="1722" spans="1:1">
+      <c r="A1722" s="1"/>
+    </row>
+    <row r="1723" spans="1:1">
+      <c r="A1723" s="1"/>
+    </row>
+    <row r="1724" spans="1:1">
+      <c r="A1724" s="1"/>
+    </row>
+    <row r="1725" spans="1:1">
+      <c r="A1725" s="1"/>
+    </row>
+    <row r="1726" spans="1:1">
+      <c r="A1726" s="1"/>
+    </row>
+    <row r="1727" spans="1:1">
+      <c r="A1727" s="1"/>
+    </row>
+    <row r="1728" spans="1:1">
+      <c r="A1728" s="1"/>
+    </row>
+    <row r="1729" spans="1:1">
+      <c r="A1729" s="1"/>
+    </row>
+    <row r="1730" spans="1:1">
+      <c r="A1730" s="1"/>
+    </row>
+    <row r="1731" spans="1:1">
+      <c r="A1731" s="1"/>
+    </row>
+    <row r="1732" spans="1:1">
+      <c r="A1732" s="1"/>
+    </row>
+    <row r="1733" spans="1:1">
+      <c r="A1733" s="1"/>
+    </row>
+    <row r="1734" spans="1:1">
+      <c r="A1734" s="1"/>
+    </row>
+    <row r="1735" spans="1:1">
+      <c r="A1735" s="1"/>
+    </row>
+    <row r="1736" spans="1:1">
+      <c r="A1736" s="1"/>
+    </row>
+    <row r="1737" spans="1:1">
+      <c r="A1737" s="1"/>
+    </row>
+    <row r="1738" spans="1:1">
+      <c r="A1738" s="1"/>
+    </row>
+    <row r="1739" spans="1:1">
+      <c r="A1739" s="1"/>
+    </row>
+    <row r="1740" spans="1:1">
+      <c r="A1740" s="1"/>
+    </row>
+    <row r="1741" spans="1:1">
+      <c r="A1741" s="1"/>
+    </row>
+    <row r="1742" spans="1:1">
+      <c r="A1742" s="1"/>
+    </row>
+    <row r="1743" spans="1:1">
+      <c r="A1743" s="1"/>
+    </row>
+    <row r="1744" spans="1:1">
+      <c r="A1744" s="1"/>
+    </row>
+    <row r="1745" spans="1:1">
+      <c r="A1745" s="1"/>
+    </row>
+    <row r="1746" spans="1:1">
+      <c r="A1746" s="1"/>
+    </row>
+    <row r="1747" spans="1:1">
+      <c r="A1747" s="1"/>
+    </row>
+    <row r="1748" spans="1:1">
+      <c r="A1748" s="1"/>
+    </row>
+    <row r="1749" spans="1:1">
+      <c r="A1749" s="1"/>
+    </row>
+    <row r="1750" spans="1:1">
+      <c r="A1750" s="1"/>
+    </row>
+    <row r="1751" spans="1:1">
+      <c r="A1751" s="1"/>
+    </row>
+    <row r="1752" spans="1:1">
+      <c r="A1752" s="1"/>
+    </row>
+    <row r="1753" spans="1:1">
+      <c r="A1753" s="1"/>
+    </row>
+    <row r="1754" spans="1:1">
+      <c r="A1754" s="1"/>
+    </row>
+    <row r="1755" spans="1:1">
+      <c r="A1755" s="1"/>
+    </row>
+    <row r="1756" spans="1:1">
+      <c r="A1756" s="1"/>
+    </row>
+    <row r="1757" spans="1:1">
+      <c r="A1757" s="1"/>
+    </row>
+    <row r="1758" spans="1:1">
+      <c r="A1758" s="1"/>
+    </row>
+    <row r="1759" spans="1:1">
+      <c r="A1759" s="1"/>
+    </row>
+    <row r="1760" spans="1:1">
+      <c r="A1760" s="1"/>
+    </row>
+    <row r="1761" spans="1:1">
+      <c r="A1761" s="1"/>
+    </row>
+    <row r="1762" spans="1:1">
+      <c r="A1762" s="1"/>
+    </row>
+    <row r="1763" spans="1:1">
+      <c r="A1763" s="1"/>
+    </row>
+    <row r="1764" spans="1:1">
+      <c r="A1764" s="1"/>
+    </row>
+    <row r="1765" spans="1:1">
+      <c r="A1765" s="1"/>
+    </row>
+    <row r="1766" spans="1:1">
+      <c r="A1766" s="1"/>
+    </row>
+    <row r="1767" spans="1:1">
+      <c r="A1767" s="1"/>
+    </row>
+    <row r="1768" spans="1:1">
+      <c r="A1768" s="1"/>
+    </row>
+    <row r="1769" spans="1:1">
+      <c r="A1769" s="1"/>
+    </row>
+    <row r="1770" spans="1:1">
+      <c r="A1770" s="1"/>
+    </row>
+    <row r="1771" spans="1:1">
+      <c r="A1771" s="1"/>
+    </row>
+    <row r="1772" spans="1:1">
+      <c r="A1772" s="1"/>
+    </row>
+    <row r="1773" spans="1:1">
+      <c r="A1773" s="1"/>
+    </row>
+    <row r="1774" spans="1:1">
+      <c r="A1774" s="1"/>
+    </row>
+    <row r="1775" spans="1:1">
+      <c r="A1775" s="1"/>
+    </row>
+    <row r="1776" spans="1:1">
+      <c r="A1776" s="1"/>
+    </row>
+    <row r="1777" spans="1:1">
+      <c r="A1777" s="1"/>
+    </row>
+    <row r="1778" spans="1:1">
+      <c r="A1778" s="1"/>
+    </row>
+    <row r="1779" spans="1:1">
+      <c r="A1779" s="1"/>
+    </row>
+    <row r="1780" spans="1:1">
+      <c r="A1780" s="1"/>
+    </row>
+    <row r="1781" spans="1:1">
+      <c r="A1781" s="1"/>
+    </row>
+    <row r="1782" spans="1:1">
+      <c r="A1782" s="1"/>
+    </row>
+    <row r="1783" spans="1:1">
+      <c r="A1783" s="1"/>
+    </row>
+    <row r="1784" spans="1:1">
+      <c r="A1784" s="1"/>
+    </row>
+    <row r="1785" spans="1:1">
+      <c r="A1785" s="1"/>
+    </row>
+    <row r="1786" spans="1:1">
+      <c r="A1786" s="1"/>
+    </row>
+    <row r="1787" spans="1:1">
+      <c r="A1787" s="1"/>
+    </row>
+    <row r="1788" spans="1:1">
+      <c r="A1788" s="1"/>
+    </row>
+    <row r="1789" spans="1:1">
+      <c r="A1789" s="1"/>
+    </row>
+    <row r="1790" spans="1:1">
+      <c r="A1790" s="1"/>
+    </row>
+    <row r="1791" spans="1:1">
+      <c r="A1791" s="1"/>
+    </row>
+    <row r="1792" spans="1:1">
+      <c r="A1792" s="1"/>
+    </row>
+    <row r="1793" spans="1:1">
+      <c r="A1793" s="1"/>
+    </row>
+    <row r="1794" spans="1:1">
+      <c r="A1794" s="1"/>
+    </row>
+    <row r="1795" spans="1:1">
+      <c r="A1795" s="1"/>
+    </row>
+    <row r="1796" spans="1:1">
+      <c r="A1796" s="1"/>
+    </row>
+    <row r="1797" spans="1:1">
+      <c r="A1797" s="1"/>
+    </row>
+    <row r="1798" spans="1:1">
+      <c r="A1798" s="1"/>
+    </row>
+    <row r="1799" spans="1:1">
+      <c r="A1799" s="1"/>
+    </row>
+    <row r="1800" spans="1:1">
+      <c r="A1800" s="1"/>
+    </row>
+    <row r="1801" spans="1:1">
+      <c r="A1801" s="1"/>
+    </row>
+    <row r="1802" spans="1:1">
+      <c r="A1802" s="1"/>
+    </row>
+    <row r="1803" spans="1:1">
+      <c r="A1803" s="1"/>
+    </row>
+    <row r="1804" spans="1:1">
+      <c r="A1804" s="1"/>
+    </row>
+    <row r="1805" spans="1:1">
+      <c r="A1805" s="1"/>
+    </row>
+    <row r="1806" spans="1:1">
+      <c r="A1806" s="1"/>
+    </row>
+    <row r="1807" spans="1:1">
+      <c r="A1807" s="1"/>
+    </row>
+    <row r="1808" spans="1:1">
+      <c r="A1808" s="1"/>
+    </row>
+    <row r="1809" spans="1:1">
+      <c r="A1809" s="1"/>
+    </row>
+    <row r="1810" spans="1:1">
+      <c r="A1810" s="1"/>
+    </row>
+    <row r="1811" spans="1:1">
+      <c r="A1811" s="1"/>
+    </row>
+    <row r="1812" spans="1:1">
+      <c r="A1812" s="1"/>
+    </row>
+    <row r="1813" spans="1:1">
+      <c r="A1813" s="1"/>
+    </row>
+    <row r="1814" spans="1:1">
+      <c r="A1814" s="1"/>
+    </row>
+    <row r="1815" spans="1:1">
+      <c r="A1815" s="1"/>
+    </row>
+    <row r="1816" spans="1:1">
+      <c r="A1816" s="1"/>
+    </row>
+    <row r="1817" spans="1:1">
+      <c r="A1817" s="1"/>
+    </row>
+    <row r="1818" spans="1:1">
+      <c r="A1818" s="1"/>
+    </row>
+    <row r="1819" spans="1:1">
+      <c r="A1819" s="1"/>
+    </row>
+    <row r="1820" spans="1:1">
+      <c r="A1820" s="1"/>
+    </row>
+    <row r="1821" spans="1:1">
+      <c r="A1821" s="1"/>
+    </row>
+    <row r="1822" spans="1:1">
+      <c r="A1822" s="1"/>
+    </row>
+    <row r="1823" spans="1:1">
+      <c r="A1823" s="1"/>
+    </row>
+    <row r="1824" spans="1:1">
+      <c r="A1824" s="1"/>
+    </row>
+    <row r="1825" spans="1:1">
+      <c r="A1825" s="1"/>
+    </row>
+    <row r="1826" spans="1:1">
+      <c r="A1826" s="1"/>
+    </row>
+    <row r="1827" spans="1:1">
+      <c r="A1827" s="1"/>
+    </row>
+    <row r="1828" spans="1:1">
+      <c r="A1828" s="1"/>
+    </row>
+    <row r="1829" spans="1:1">
+      <c r="A1829" s="1"/>
+    </row>
+    <row r="1830" spans="1:1">
+      <c r="A1830" s="1"/>
+    </row>
+    <row r="1831" spans="1:1">
+      <c r="A1831" s="1"/>
+    </row>
+    <row r="1832" spans="1:1">
+      <c r="A1832" s="1"/>
+    </row>
+    <row r="1833" spans="1:1">
+      <c r="A1833" s="1"/>
+    </row>
+    <row r="1834" spans="1:1">
+      <c r="A1834" s="1"/>
+    </row>
+    <row r="1835" spans="1:1">
+      <c r="A1835" s="1"/>
+    </row>
+    <row r="1836" spans="1:1">
+      <c r="A1836" s="1"/>
+    </row>
+    <row r="1837" spans="1:1">
+      <c r="A1837" s="1"/>
+    </row>
+    <row r="1838" spans="1:1">
+      <c r="A1838" s="1"/>
+    </row>
+    <row r="1839" spans="1:1">
+      <c r="A1839" s="1"/>
+    </row>
+    <row r="1840" spans="1:1">
+      <c r="A1840" s="1"/>
+    </row>
+    <row r="1841" spans="1:1">
+      <c r="A1841" s="1"/>
+    </row>
+    <row r="1842" spans="1:1">
+      <c r="A1842" s="1"/>
+    </row>
+    <row r="1843" spans="1:1">
+      <c r="A1843" s="1"/>
+    </row>
+    <row r="1844" spans="1:1">
+      <c r="A1844" s="1"/>
+    </row>
+    <row r="1845" spans="1:1">
+      <c r="A1845" s="1"/>
+    </row>
+    <row r="1846" spans="1:1">
+      <c r="A1846" s="1"/>
+    </row>
+    <row r="1847" spans="1:1">
+      <c r="A1847" s="1"/>
+    </row>
+    <row r="1848" spans="1:1">
+      <c r="A1848" s="1"/>
+    </row>
+    <row r="1849" spans="1:1">
+      <c r="A1849" s="1"/>
+    </row>
+    <row r="1850" spans="1:1">
+      <c r="A1850" s="1"/>
+    </row>
+    <row r="1851" spans="1:1">
+      <c r="A1851" s="1"/>
+    </row>
+    <row r="1852" spans="1:1">
+      <c r="A1852" s="1"/>
+    </row>
+    <row r="1853" spans="1:1">
+      <c r="A1853" s="1"/>
+    </row>
+    <row r="1854" spans="1:1">
+      <c r="A1854" s="1"/>
+    </row>
+    <row r="1855" spans="1:1">
+      <c r="A1855" s="1"/>
+    </row>
+    <row r="1856" spans="1:1">
+      <c r="A1856" s="1"/>
+    </row>
+    <row r="1857" spans="1:1">
+      <c r="A1857" s="1"/>
+    </row>
+    <row r="1858" spans="1:1">
+      <c r="A1858" s="1"/>
+    </row>
+    <row r="1859" spans="1:1">
+      <c r="A1859" s="1"/>
+    </row>
+    <row r="1860" spans="1:1">
+      <c r="A1860" s="1"/>
+    </row>
+    <row r="1861" spans="1:1">
+      <c r="A1861" s="1"/>
+    </row>
+    <row r="1862" spans="1:1">
+      <c r="A1862" s="1"/>
+    </row>
+    <row r="1863" spans="1:1">
+      <c r="A1863" s="1"/>
+    </row>
+    <row r="1864" spans="1:1">
+      <c r="A1864" s="1"/>
+    </row>
+    <row r="1865" spans="1:1">
+      <c r="A1865" s="1"/>
+    </row>
+    <row r="1866" spans="1:1">
+      <c r="A1866" s="1"/>
+    </row>
+    <row r="1867" spans="1:1">
+      <c r="A1867" s="1"/>
+    </row>
+    <row r="1868" spans="1:1">
+      <c r="A1868" s="1"/>
+    </row>
+    <row r="1869" spans="1:1">
+      <c r="A1869" s="1"/>
+    </row>
+    <row r="1870" spans="1:1">
+      <c r="A1870" s="1"/>
+    </row>
+    <row r="1871" spans="1:1">
+      <c r="A1871" s="1"/>
+    </row>
+    <row r="1872" spans="1:1">
+      <c r="A1872" s="1"/>
+    </row>
+    <row r="1873" spans="1:1">
+      <c r="A1873" s="1"/>
+    </row>
+    <row r="1874" spans="1:1">
+      <c r="A1874" s="1"/>
+    </row>
+    <row r="1875" spans="1:1">
+      <c r="A1875" s="1"/>
+    </row>
+    <row r="1876" spans="1:1">
+      <c r="A1876" s="1"/>
+    </row>
+    <row r="1877" spans="1:1">
+      <c r="A1877" s="1"/>
+    </row>
+    <row r="1878" spans="1:1">
+      <c r="A1878" s="1"/>
+    </row>
+    <row r="1879" spans="1:1">
+      <c r="A1879" s="1"/>
+    </row>
+    <row r="1880" spans="1:1">
+      <c r="A1880" s="1"/>
+    </row>
+    <row r="1881" spans="1:1">
+      <c r="A1881" s="1"/>
+    </row>
+    <row r="1882" spans="1:1">
+      <c r="A1882" s="1"/>
+    </row>
+    <row r="1883" spans="1:1">
+      <c r="A1883" s="1"/>
+    </row>
+    <row r="1884" spans="1:1">
+      <c r="A1884" s="1"/>
+    </row>
+    <row r="1885" spans="1:1">
+      <c r="A1885" s="1"/>
+    </row>
+    <row r="1886" spans="1:1">
+      <c r="A1886" s="1"/>
+    </row>
+    <row r="1887" spans="1:1">
+      <c r="A1887" s="1"/>
+    </row>
+    <row r="1888" spans="1:1">
+      <c r="A1888" s="1"/>
+    </row>
+    <row r="1889" spans="1:1">
+      <c r="A1889" s="1"/>
+    </row>
+    <row r="1890" spans="1:1">
+      <c r="A1890" s="1"/>
+    </row>
+    <row r="1891" spans="1:1">
+      <c r="A1891" s="1"/>
+    </row>
+    <row r="1892" spans="1:1">
+      <c r="A1892" s="1"/>
+    </row>
+    <row r="1893" spans="1:1">
+      <c r="A1893" s="1"/>
+    </row>
+    <row r="1894" spans="1:1">
+      <c r="A1894" s="1"/>
+    </row>
+    <row r="1895" spans="1:1">
+      <c r="A1895" s="1"/>
+    </row>
+    <row r="1896" spans="1:1">
+      <c r="A1896" s="1"/>
+    </row>
+    <row r="1897" spans="1:1">
+      <c r="A1897" s="1"/>
+    </row>
+    <row r="1898" spans="1:1">
+      <c r="A1898" s="1"/>
+    </row>
+    <row r="1899" spans="1:1">
+      <c r="A1899" s="1"/>
+    </row>
+    <row r="1900" spans="1:1">
+      <c r="A1900" s="1"/>
+    </row>
+    <row r="1901" spans="1:1">
+      <c r="A1901" s="1"/>
+    </row>
+    <row r="1902" spans="1:1">
+      <c r="A1902" s="1"/>
+    </row>
+    <row r="1903" spans="1:1">
+      <c r="A1903" s="1"/>
+    </row>
+    <row r="1904" spans="1:1">
+      <c r="A1904" s="1"/>
+    </row>
+    <row r="1905" spans="1:1">
+      <c r="A1905" s="1"/>
+    </row>
+    <row r="1906" spans="1:1">
+      <c r="A1906" s="1"/>
+    </row>
+    <row r="1907" spans="1:1">
+      <c r="A1907" s="1"/>
+    </row>
+    <row r="1908" spans="1:1">
+      <c r="A1908" s="1"/>
+    </row>
+    <row r="1909" spans="1:1">
+      <c r="A1909" s="1"/>
+    </row>
+    <row r="1910" spans="1:1">
+      <c r="A1910" s="1"/>
+    </row>
+    <row r="1911" spans="1:1">
+      <c r="A1911" s="1"/>
+    </row>
+    <row r="1912" spans="1:1">
+      <c r="A1912" s="1"/>
+    </row>
+    <row r="1913" spans="1:1">
+      <c r="A1913" s="1"/>
+    </row>
+    <row r="1914" spans="1:1">
+      <c r="A1914" s="1"/>
+    </row>
+    <row r="1915" spans="1:1">
+      <c r="A1915" s="1"/>
+    </row>
+    <row r="1916" spans="1:1">
+      <c r="A1916" s="1"/>
+    </row>
+    <row r="1917" spans="1:1">
+      <c r="A1917" s="1"/>
+    </row>
+    <row r="1918" spans="1:1">
+      <c r="A1918" s="1"/>
+    </row>
+    <row r="1919" spans="1:1">
+      <c r="A1919" s="1"/>
+    </row>
+    <row r="1920" spans="1:1">
+      <c r="A1920" s="1"/>
+    </row>
+    <row r="1921" spans="1:1">
+      <c r="A1921" s="1"/>
+    </row>
+    <row r="1922" spans="1:1">
+      <c r="A1922" s="1"/>
+    </row>
+    <row r="1923" spans="1:1">
+      <c r="A1923" s="1"/>
+    </row>
+    <row r="1924" spans="1:1">
+      <c r="A1924" s="1"/>
+    </row>
+    <row r="1925" spans="1:1">
+      <c r="A1925" s="1"/>
+    </row>
+    <row r="1926" spans="1:1">
+      <c r="A1926" s="1"/>
+    </row>
+    <row r="1927" spans="1:1">
+      <c r="A1927" s="1"/>
+    </row>
+    <row r="1928" spans="1:1">
+      <c r="A1928" s="1"/>
+    </row>
+    <row r="1929" spans="1:1">
+      <c r="A1929" s="1"/>
+    </row>
+    <row r="1930" spans="1:1">
+      <c r="A1930" s="1"/>
+    </row>
+    <row r="1931" spans="1:1">
+      <c r="A1931" s="1"/>
+    </row>
+    <row r="1932" spans="1:1">
+      <c r="A1932" s="1"/>
+    </row>
+    <row r="1933" spans="1:1">
+      <c r="A1933" s="1"/>
+    </row>
+    <row r="1934" spans="1:1">
+      <c r="A1934" s="1"/>
+    </row>
+    <row r="1935" spans="1:1">
+      <c r="A1935" s="1"/>
+    </row>
+    <row r="1936" spans="1:1">
+      <c r="A1936" s="1"/>
+    </row>
+    <row r="1937" spans="1:1">
+      <c r="A1937" s="1"/>
+    </row>
+    <row r="1938" spans="1:1">
+      <c r="A1938" s="1"/>
+    </row>
+    <row r="1939" spans="1:1">
+      <c r="A1939" s="1"/>
+    </row>
+    <row r="1940" spans="1:1">
+      <c r="A1940" s="1"/>
+    </row>
+    <row r="1941" spans="1:1">
+      <c r="A1941" s="1"/>
+    </row>
+    <row r="1942" spans="1:1">
+      <c r="A1942" s="1"/>
+    </row>
+    <row r="1943" spans="1:1">
+      <c r="A1943" s="1"/>
+    </row>
+    <row r="1944" spans="1:1">
+      <c r="A1944" s="1"/>
+    </row>
+    <row r="1945" spans="1:1">
+      <c r="A1945" s="1"/>
+    </row>
+    <row r="1946" spans="1:1">
+      <c r="A1946" s="1"/>
+    </row>
+    <row r="1947" spans="1:1">
+      <c r="A1947" s="1"/>
+    </row>
+    <row r="1948" spans="1:1">
+      <c r="A1948" s="1"/>
+    </row>
+    <row r="1949" spans="1:1">
+      <c r="A1949" s="1"/>
+    </row>
+    <row r="1950" spans="1:1">
+      <c r="A1950" s="1"/>
+    </row>
+    <row r="1951" spans="1:1">
+      <c r="A1951" s="1"/>
+    </row>
+    <row r="1952" spans="1:1">
+      <c r="A1952" s="1"/>
+    </row>
+    <row r="1953" spans="1:1">
+      <c r="A1953" s="1"/>
+    </row>
+    <row r="1954" spans="1:1">
+      <c r="A1954" s="1"/>
+    </row>
+    <row r="1955" spans="1:1">
+      <c r="A1955" s="1"/>
+    </row>
+    <row r="1956" spans="1:1">
+      <c r="A1956" s="1"/>
+    </row>
+    <row r="1957" spans="1:1">
+      <c r="A1957" s="1"/>
+    </row>
+    <row r="1958" spans="1:1">
+      <c r="A1958" s="1"/>
+    </row>
+    <row r="1959" spans="1:1">
+      <c r="A1959" s="1"/>
+    </row>
+    <row r="1960" spans="1:1">
+      <c r="A1960" s="1"/>
+    </row>
+    <row r="1961" spans="1:1">
+      <c r="A1961" s="1"/>
+    </row>
+    <row r="1962" spans="1:1">
+      <c r="A1962" s="1"/>
+    </row>
+    <row r="1963" spans="1:1">
+      <c r="A1963" s="1"/>
+    </row>
+    <row r="1964" spans="1:1">
+      <c r="A1964" s="1"/>
+    </row>
+    <row r="1965" spans="1:1">
+      <c r="A1965" s="1"/>
+    </row>
+    <row r="1966" spans="1:1">
+      <c r="A1966" s="1"/>
+    </row>
+    <row r="1967" spans="1:1">
+      <c r="A1967" s="1"/>
+    </row>
+    <row r="1968" spans="1:1">
+      <c r="A1968" s="1"/>
+    </row>
+    <row r="1969" spans="1:1">
+      <c r="A1969" s="1"/>
+    </row>
+    <row r="1970" spans="1:1">
+      <c r="A1970" s="1"/>
+    </row>
+    <row r="1971" spans="1:1">
+      <c r="A1971" s="1"/>
+    </row>
+    <row r="1972" spans="1:1">
+      <c r="A1972" s="1"/>
+    </row>
+    <row r="1973" spans="1:1">
+      <c r="A1973" s="1"/>
+    </row>
+    <row r="1974" spans="1:1">
+      <c r="A1974" s="1"/>
+    </row>
+    <row r="1975" spans="1:1">
+      <c r="A1975" s="1"/>
+    </row>
+    <row r="1976" spans="1:1">
+      <c r="A1976" s="1"/>
+    </row>
+    <row r="1977" spans="1:1">
+      <c r="A1977" s="1"/>
+    </row>
+    <row r="1978" spans="1:1">
+      <c r="A1978" s="1"/>
+    </row>
+    <row r="1979" spans="1:1">
+      <c r="A1979" s="1"/>
+    </row>
+    <row r="1980" spans="1:1">
+      <c r="A1980" s="1"/>
+    </row>
+    <row r="1981" spans="1:1">
+      <c r="A1981" s="1"/>
+    </row>
+    <row r="1982" spans="1:1">
+      <c r="A1982" s="1"/>
+    </row>
+    <row r="1983" spans="1:1">
+      <c r="A1983" s="1"/>
+    </row>
+    <row r="1984" spans="1:1">
+      <c r="A1984" s="1"/>
+    </row>
+    <row r="1985" spans="1:1">
+      <c r="A1985" s="1"/>
+    </row>
+    <row r="1986" spans="1:1">
+      <c r="A1986" s="1"/>
+    </row>
+    <row r="1987" spans="1:1">
+      <c r="A1987" s="1"/>
+    </row>
+    <row r="1988" spans="1:1">
+      <c r="A1988" s="1"/>
+    </row>
+    <row r="1989" spans="1:1">
+      <c r="A1989" s="1"/>
+    </row>
+    <row r="1990" spans="1:1">
+      <c r="A1990" s="1"/>
+    </row>
+    <row r="1991" spans="1:1">
+      <c r="A1991" s="1"/>
+    </row>
+    <row r="1992" spans="1:1">
+      <c r="A1992" s="1"/>
+    </row>
+    <row r="1993" spans="1:1">
+      <c r="A1993" s="1"/>
+    </row>
+    <row r="1994" spans="1:1">
+      <c r="A1994" s="1"/>
+    </row>
+    <row r="1995" spans="1:1">
+      <c r="A1995" s="1"/>
+    </row>
+    <row r="1996" spans="1:1">
+      <c r="A1996" s="1"/>
+    </row>
+    <row r="1997" spans="1:1">
+      <c r="A1997" s="1"/>
+    </row>
+    <row r="1998" spans="1:1">
+      <c r="A1998" s="1"/>
+    </row>
+    <row r="1999" spans="1:1">
+      <c r="A1999" s="1"/>
+    </row>
+    <row r="2000" spans="1:1">
+      <c r="A2000" s="1"/>
+    </row>
+    <row r="2001" spans="1:1">
+      <c r="A2001" s="1"/>
+    </row>
+    <row r="2002" spans="1:1">
+      <c r="A2002" s="1"/>
+    </row>
+    <row r="2003" spans="1:1">
+      <c r="A2003" s="1"/>
+    </row>
+    <row r="2004" spans="1:1">
+      <c r="A2004" s="1"/>
+    </row>
+    <row r="2005" spans="1:1">
+      <c r="A2005" s="1"/>
+    </row>
+    <row r="2006" spans="1:1">
+      <c r="A2006" s="1"/>
+    </row>
+    <row r="2007" spans="1:1">
+      <c r="A2007" s="1"/>
+    </row>
+    <row r="2008" spans="1:1">
+      <c r="A2008" s="1"/>
+    </row>
+    <row r="2009" spans="1:1">
+      <c r="A2009" s="1"/>
+    </row>
+    <row r="2010" spans="1:1">
+      <c r="A2010" s="1"/>
+    </row>
+    <row r="2011" spans="1:1">
+      <c r="A2011" s="1"/>
+    </row>
+    <row r="2012" spans="1:1">
+      <c r="A2012" s="1"/>
+    </row>
+    <row r="2013" spans="1:1">
+      <c r="A2013" s="1"/>
+    </row>
+    <row r="2014" spans="1:1">
+      <c r="A2014" s="1"/>
+    </row>
+    <row r="2015" spans="1:1">
+      <c r="A2015" s="1"/>
+    </row>
+    <row r="2016" spans="1:1">
+      <c r="A2016" s="1"/>
+    </row>
+    <row r="2017" spans="1:1">
+      <c r="A2017" s="1"/>
+    </row>
+    <row r="2018" spans="1:1">
+      <c r="A2018" s="1"/>
+    </row>
+    <row r="2019" spans="1:1">
+      <c r="A2019" s="1"/>
+    </row>
+    <row r="2020" spans="1:1">
+      <c r="A2020" s="1"/>
+    </row>
+    <row r="2021" spans="1:1">
+      <c r="A2021" s="1"/>
+    </row>
+    <row r="2022" spans="1:1">
+      <c r="A2022" s="1"/>
+    </row>
+    <row r="2023" spans="1:1">
+      <c r="A2023" s="1"/>
+    </row>
+    <row r="2024" spans="1:1">
+      <c r="A2024" s="1"/>
+    </row>
+    <row r="2025" spans="1:1">
+      <c r="A2025" s="1"/>
+    </row>
+    <row r="2026" spans="1:1">
+      <c r="A2026" s="1"/>
+    </row>
+    <row r="2027" spans="1:1">
+      <c r="A2027" s="1"/>
+    </row>
+    <row r="2028" spans="1:1">
+      <c r="A2028" s="1"/>
+    </row>
+    <row r="2029" spans="1:1">
+      <c r="A2029" s="1"/>
+    </row>
+    <row r="2030" spans="1:1">
+      <c r="A2030" s="1"/>
+    </row>
+    <row r="2031" spans="1:1">
+      <c r="A2031" s="1"/>
+    </row>
+    <row r="2032" spans="1:1">
+      <c r="A2032" s="1"/>
+    </row>
+    <row r="2033" spans="1:2">
+      <c r="A2033" s="1"/>
+    </row>
+    <row r="2034" spans="1:2">
+      <c r="A2034" s="1"/>
+    </row>
+    <row r="2035" spans="1:2">
+      <c r="A2035" s="1"/>
+    </row>
+    <row r="2036" spans="1:2">
+      <c r="A2036" s="1"/>
+    </row>
+    <row r="2037" spans="1:2">
+      <c r="A2037" s="1"/>
+    </row>
+    <row r="2038" spans="1:2">
+      <c r="A2038" s="1"/>
+    </row>
+    <row r="2039" spans="1:2">
+      <c r="A2039" s="1"/>
+    </row>
+    <row r="2040" spans="1:2">
+      <c r="A2040" s="1"/>
+    </row>
+    <row r="2041" spans="1:2">
+      <c r="A2041" s="1"/>
+    </row>
+    <row r="2042" spans="1:2">
+      <c r="A2042" s="1"/>
+    </row>
+    <row r="2043" spans="1:2">
+      <c r="A2043" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2043">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:2">
+      <c r="A2044" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2044">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2">
+      <c r="A2045" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2045">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2">
+      <c r="A2046" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2046">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2">
+      <c r="A2047" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2047">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2">
+      <c r="A2048" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2048">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2">
+      <c r="A2049" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2049">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2">
+      <c r="A2050" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2050">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2">
+      <c r="A2051" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2051">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:2">
+      <c r="A2052" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2052">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2">
+      <c r="A2053" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2053">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2">
+      <c r="A2054" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2054">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2">
+      <c r="A2055" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2055">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2">
+      <c r="A2056" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2056">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2">
+      <c r="A2057" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2057">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2">
+      <c r="A2058" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2058">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2">
+      <c r="A2059" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2059">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2">
+      <c r="A2060" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2060">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2">
+      <c r="A2061" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2061">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2">
+      <c r="A2062" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2062">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2">
+      <c r="A2063" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2063">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2">
+      <c r="A2064" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2064">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2">
+      <c r="A2065" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2065">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2">
+      <c r="A2066" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2066">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2">
+      <c r="A2067" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2067">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2">
+      <c r="A2068" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2068">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2">
+      <c r="A2069" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2069">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2">
+      <c r="A2070" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2070">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2">
+      <c r="A2071" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2071">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2">
+      <c r="A2072" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2072">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2">
+      <c r="A2073" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2073">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2">
+      <c r="A2074" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2074">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2">
+      <c r="A2075" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2075">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2">
+      <c r="A2076" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2076">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2">
+      <c r="A2077" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2077">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2">
+      <c r="A2078" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2078">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2">
+      <c r="A2079" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2079">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2">
+      <c r="A2080" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2080">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2">
+      <c r="A2081" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2081">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2">
+      <c r="A2082" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2082">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2">
+      <c r="A2083" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2083">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2">
+      <c r="A2084" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2084">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2">
+      <c r="A2085" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2085">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2">
+      <c r="A2086" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2086">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2">
+      <c r="A2087" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2087">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2">
+      <c r="A2088" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2088">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2">
+      <c r="A2089" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2089">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2">
+      <c r="A2090" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2090">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2">
+      <c r="A2091" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2091">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2">
+      <c r="A2092" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2092">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2">
+      <c r="A2093" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2093">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2">
+      <c r="A2094" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2094">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2">
+      <c r="A2095" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2095">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2">
+      <c r="A2096" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2096">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:2">
+      <c r="A2097" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2097">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:2">
+      <c r="A2098" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2098">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:2">
+      <c r="A2099" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2099">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:2">
+      <c r="A2100" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2100">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:2">
+      <c r="A2101" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2101">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2">
+      <c r="A2102" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2102">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2">
+      <c r="A2103" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2103">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2">
+      <c r="A2104" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2104">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2">
+      <c r="A2105" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2105">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:2">
+      <c r="A2106" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2106">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2">
+      <c r="A2107" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2107">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2">
+      <c r="A2108" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2108">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:2">
+      <c r="A2109" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2109">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2">
+      <c r="A2110" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2110">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2">
+      <c r="A2111" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2111">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:2">
+      <c r="A2112" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2112">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2">
+      <c r="A2113" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2113">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2">
+      <c r="A2114" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2114">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2">
+      <c r="A2115" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2115">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2">
+      <c r="A2116" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2116">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2">
+      <c r="A2117" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2117">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2">
+      <c r="A2118" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2118">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2">
+      <c r="A2119" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2119">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2">
+      <c r="A2120" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2120">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2">
+      <c r="A2121" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2121">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2">
+      <c r="A2122" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2122">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2">
+      <c r="A2123" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2123">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2">
+      <c r="A2124" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2124">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2">
+      <c r="A2125" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2125">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2">
+      <c r="A2126" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2126">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2">
+      <c r="A2127" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2127">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2">
+      <c r="A2128" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2128">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2">
+      <c r="A2129" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2129">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2">
+      <c r="A2130" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2130">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2">
+      <c r="A2131" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2131">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2">
+      <c r="A2132" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2132">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2">
+      <c r="A2133" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2133">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2">
+      <c r="A2134" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2134">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2">
+      <c r="A2135" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2135">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2">
+      <c r="A2136" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2136">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2">
+      <c r="A2137" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2137">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2">
+      <c r="A2138" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2138">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2">
+      <c r="A2139" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2139">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2">
+      <c r="A2140" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2140">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2">
+      <c r="A2141" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2141">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2">
+      <c r="A2142" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2142">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2">
+      <c r="A2143" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2143">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2">
+      <c r="A2144" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2144">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2">
+      <c r="A2145" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2145">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2">
+      <c r="A2146" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2146">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2">
+      <c r="A2147" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2147">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2">
+      <c r="A2148" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2148">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2">
+      <c r="A2149" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2149">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2">
+      <c r="A2150" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2150">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2">
+      <c r="A2151" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2151">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2">
+      <c r="A2152" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2152">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2">
+      <c r="A2153" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2153">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2">
+      <c r="A2154" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2154">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2">
+      <c r="A2155" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2155">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2">
+      <c r="A2156" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2156">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2">
+      <c r="A2157" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2157">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2">
+      <c r="A2158" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2158">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2">
+      <c r="A2159" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2159">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2">
+      <c r="A2160" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2160">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2">
+      <c r="A2161" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2161">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2">
+      <c r="A2162" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2162">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2">
+      <c r="A2163" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2163">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2">
+      <c r="A2164" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2164">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2">
+      <c r="A2165" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2165">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2">
+      <c r="A2166" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2166">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2">
+      <c r="A2167" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2167">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2">
+      <c r="A2168" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2168">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2">
+      <c r="A2169" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2169">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2">
+      <c r="A2170" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2170">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2">
+      <c r="A2171" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2171">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2">
+      <c r="A2172" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2172">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2">
+      <c r="A2173" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2173">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2">
+      <c r="A2174" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2174">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2">
+      <c r="A2175" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2175">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2">
+      <c r="A2176" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2176">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2">
+      <c r="A2177" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2177">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2">
+      <c r="A2178" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2178">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2">
+      <c r="A2179" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2179">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2">
+      <c r="A2180" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2180">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2">
+      <c r="A2181" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2181">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2">
+      <c r="A2182" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2182">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2">
+      <c r="A2183" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2183">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2">
+      <c r="A2184" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2184">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2">
+      <c r="A2185" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2185">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2">
+      <c r="A2186" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2186">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2">
+      <c r="A2187" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2187">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2">
+      <c r="A2188" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2188">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2">
+      <c r="A2189" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2189">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2">
+      <c r="A2190" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2190">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2">
+      <c r="A2191" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2191">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2">
+      <c r="A2192" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2192">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2">
+      <c r="A2193" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2193">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2">
+      <c r="A2194" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2194">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2">
+      <c r="A2195" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2195">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2">
+      <c r="A2196" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2196">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2">
+      <c r="A2197" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2197">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2">
+      <c r="A2198" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2198">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2">
+      <c r="A2199" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2199">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2">
+      <c r="A2200" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2200">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2">
+      <c r="A2201" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2201">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2">
+      <c r="A2202" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2202">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2">
+      <c r="A2203" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2203">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2">
+      <c r="A2204" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2204">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2">
+      <c r="A2205" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2205">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2">
+      <c r="A2206" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2206">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2">
+      <c r="A2207" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2207">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2">
+      <c r="A2208" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2208">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2">
+      <c r="A2209" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2209">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2">
+      <c r="A2210" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2210">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2">
+      <c r="A2211" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2211">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2">
+      <c r="A2212" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2212">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2">
+      <c r="A2213" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2213">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2">
+      <c r="A2214" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2214">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2">
+      <c r="A2215" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2215">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2">
+      <c r="A2216" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2216">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2">
+      <c r="A2217" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2217">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2">
+      <c r="A2218" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2218">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2">
+      <c r="A2219" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2219">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2">
+      <c r="A2220" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2220">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2">
+      <c r="A2221" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2221">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2">
+      <c r="A2222" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2222">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2">
+      <c r="A2223" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2223">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2">
+      <c r="A2224" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2224">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2">
+      <c r="A2225" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2225">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2">
+      <c r="A2226" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2226">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2">
+      <c r="A2227" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2227">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2">
+      <c r="A2228" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2228">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2">
+      <c r="A2229" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2229">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2">
+      <c r="A2230" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2230">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2">
+      <c r="A2231" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2231">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2">
+      <c r="A2232" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2232">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2">
+      <c r="A2233" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2233">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2">
+      <c r="A2234" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2234">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2">
+      <c r="A2235" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2235">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2">
+      <c r="A2236" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2236">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2">
+      <c r="A2237" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2237">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2">
+      <c r="A2238" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2238">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2">
+      <c r="A2239" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2239">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2">
+      <c r="A2240" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2240">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2">
+      <c r="A2241" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2241">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2">
+      <c r="A2242" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2242">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2">
+      <c r="A2243" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2243">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2">
+      <c r="A2244" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2244">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2">
+      <c r="A2245" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2245">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2">
+      <c r="A2246" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2246">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2">
+      <c r="A2247" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2247">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2">
+      <c r="A2248" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2248">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2">
+      <c r="A2249" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2249">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2">
+      <c r="A2250" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2250">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2">
+      <c r="A2251" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2251">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2">
+      <c r="A2252" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2252">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2">
+      <c r="A2253" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2253">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2">
+      <c r="A2254" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2254">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2">
+      <c r="A2255" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2255">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2">
+      <c r="A2256" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2256">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2">
+      <c r="A2257" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2257">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2">
+      <c r="A2258" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2258">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2">
+      <c r="A2259" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2259">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2">
+      <c r="A2260" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2260">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2">
+      <c r="A2261" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2261">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2">
+      <c r="A2262" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2262">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2">
+      <c r="A2263" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2263">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2">
+      <c r="A2264" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2264">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2">
+      <c r="A2265" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2265">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2">
+      <c r="A2266" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2266">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2">
+      <c r="A2267" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2267">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2">
+      <c r="A2268" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2268">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2">
+      <c r="A2269" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2269">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2">
+      <c r="A2270" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2270">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2">
+      <c r="A2271" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2271">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2">
+      <c r="A2272" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2272">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2">
+      <c r="A2273" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2273">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2">
+      <c r="A2274" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2274">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2">
+      <c r="A2275" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2275">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2">
+      <c r="A2276" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2276">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2">
+      <c r="A2277" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2277">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2">
+      <c r="A2278" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2278">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2">
+      <c r="A2279" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2279">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2">
+      <c r="A2280" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2280">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2">
+      <c r="A2281" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2281">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2">
+      <c r="A2282" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2282">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2">
+      <c r="A2283" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2283">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2">
+      <c r="A2284" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2284">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2">
+      <c r="A2285" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2285">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2">
+      <c r="A2286" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2286">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2">
+      <c r="A2287" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2287">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2">
+      <c r="A2288" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2288">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2">
+      <c r="A2289" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2289">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2">
+      <c r="A2290" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2290">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2">
+      <c r="A2291" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2291">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2">
+      <c r="A2292" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2292">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2">
+      <c r="A2293" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2293">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2">
+      <c r="A2294" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2294">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2">
+      <c r="A2295" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2295">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2">
+      <c r="A2296" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2296">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2">
+      <c r="A2297" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2297">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2">
+      <c r="A2298" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2298">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2">
+      <c r="A2299" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2299">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2">
+      <c r="A2300" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2300">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2">
+      <c r="A2301" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2301">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2">
+      <c r="A2302" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2302">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2">
+      <c r="A2303" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2303">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2">
+      <c r="A2304" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2304">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2">
+      <c r="A2305" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2305">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2">
+      <c r="A2306" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2306">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2">
+      <c r="A2307" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2307">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2">
+      <c r="A2308" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2308">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2">
+      <c r="A2309" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2309">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2">
+      <c r="A2310" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2310">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2">
+      <c r="A2311" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2311">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2">
+      <c r="A2312" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2312">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2">
+      <c r="A2313" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2313">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2">
+      <c r="A2314" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2314">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2">
+      <c r="A2315" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2315">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2">
+      <c r="A2316" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2316">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2">
+      <c r="A2317" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2317">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2">
+      <c r="A2318" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2318">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2">
+      <c r="A2319" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2319">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2">
+      <c r="A2320" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2320">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2">
+      <c r="A2321" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2321">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2">
+      <c r="A2322" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2322">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2">
+      <c r="A2323" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2323">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2">
+      <c r="A2324" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2324">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2">
+      <c r="A2325" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2325">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2">
+      <c r="A2326" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2326">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2">
+      <c r="A2327" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2327">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2">
+      <c r="A2328" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2328">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2">
+      <c r="A2329" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2329">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2">
+      <c r="A2330" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2330">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2">
+      <c r="A2331" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2331">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2">
+      <c r="A2332" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2332">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2">
+      <c r="A2333" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2333">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2">
+      <c r="A2334" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2334">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2">
+      <c r="A2335" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2335">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2">
+      <c r="A2336" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2336">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2">
+      <c r="A2337" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2337">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2">
+      <c r="A2338" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2338">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2">
+      <c r="A2339" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2339">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2">
+      <c r="A2340" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2340">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2">
+      <c r="A2341" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2341">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2">
+      <c r="A2342" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2342">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2">
+      <c r="A2343" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2343">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2">
+      <c r="A2344" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2344">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2">
+      <c r="A2345" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2345">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2">
+      <c r="A2346" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2346">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2">
+      <c r="A2347" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2347">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2">
+      <c r="A2348" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2348">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2">
+      <c r="A2349" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2349">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2">
+      <c r="A2350" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2350">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2">
+      <c r="A2351" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2351">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2">
+      <c r="A2352" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2352">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2">
+      <c r="A2353" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2353">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2">
+      <c r="A2354" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2354">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2">
+      <c r="A2355" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2355">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2">
+      <c r="A2356" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2356">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2">
+      <c r="A2357" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2357">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2">
+      <c r="A2358" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2358">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2">
+      <c r="A2359" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2359">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2">
+      <c r="A2360" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2360">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2">
+      <c r="A2361" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2361">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2">
+      <c r="A2362" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2362">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2">
+      <c r="A2363" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2363">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2">
+      <c r="A2364" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2364">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2">
+      <c r="A2365" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2365">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2">
+      <c r="A2366" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2366">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2">
+      <c r="A2367" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2367">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2">
+      <c r="A2368" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2368">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2">
+      <c r="A2369" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2369">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2">
+      <c r="A2370" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2370">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2">
+      <c r="A2371" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2371">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2">
+      <c r="A2372" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2372">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2">
+      <c r="A2373" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2373">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2">
+      <c r="A2374" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2374">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2">
+      <c r="A2375" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2375">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2">
+      <c r="A2376" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2376">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2">
+      <c r="A2377" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2377">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2">
+      <c r="A2378" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2378">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2">
+      <c r="A2379" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2379">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2">
+      <c r="A2380" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2380">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2">
+      <c r="A2381" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2381">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2">
+      <c r="A2382" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2382">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2">
+      <c r="A2383" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2383">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2">
+      <c r="A2384" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2384">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2">
+      <c r="A2385" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2385">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2">
+      <c r="A2386" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2386">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2">
+      <c r="A2387" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2387">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2">
+      <c r="A2388" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2388">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2">
+      <c r="A2389" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2389">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2">
+      <c r="A2390" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2390">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2">
+      <c r="A2391" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2391">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2">
+      <c r="A2392" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2392">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2">
+      <c r="A2393" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2393">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2">
+      <c r="A2394" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2394">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2">
+      <c r="A2395" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2395">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2">
+      <c r="A2396" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2396">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2">
+      <c r="A2397" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2397">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2">
+      <c r="A2398" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2398">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2">
+      <c r="A2399" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2399">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2">
+      <c r="A2400" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2400">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2">
+      <c r="A2401" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2401">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2">
+      <c r="A2402" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2402">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2">
+      <c r="A2403" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2403">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2">
+      <c r="A2404" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2404">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2">
+      <c r="A2405" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2405">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2">
+      <c r="A2406" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2406">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2">
+      <c r="A2407" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2407">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2">
+      <c r="A2408" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2408">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2">
+      <c r="A2409" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2409">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2">
+      <c r="A2410" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2410">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2">
+      <c r="A2411" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2411">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2">
+      <c r="A2412" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2412">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2">
+      <c r="A2413" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2413">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2">
+      <c r="A2414" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2414">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2">
+      <c r="A2415" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2415">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2">
+      <c r="A2416" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2416">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2">
+      <c r="A2417" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2417">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2">
+      <c r="A2418" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2418">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2">
+      <c r="A2419" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2419">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2">
+      <c r="A2420" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2420">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2">
+      <c r="A2421" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2421">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2">
+      <c r="A2422" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2422">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:2">
+      <c r="A2423" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2423">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:2">
+      <c r="A2424" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2424">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:2">
+      <c r="A2425" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2425">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:2">
+      <c r="A2426" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2426">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:2">
+      <c r="A2427" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2427">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:2">
+      <c r="A2428" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2428">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:2">
+      <c r="A2429" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2429">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:2">
+      <c r="A2430" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2430">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2">
+      <c r="A2431" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2431">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2">
+      <c r="A2432" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2432">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:2">
+      <c r="A2433" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2433">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:2">
+      <c r="A2434" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2434">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2">
+      <c r="A2435" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2435">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2">
+      <c r="A2436" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2436">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2">
+      <c r="A2437" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2437">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2">
+      <c r="A2438" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2438">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2">
+      <c r="A2439" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2439">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2">
+      <c r="A2440" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2440">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2">
+      <c r="A2441" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2441">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2">
+      <c r="A2442" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2442">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:2">
+      <c r="A2443" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2443">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2">
+      <c r="A2444" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2444">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:2">
+      <c r="A2445" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2445">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:2">
+      <c r="A2446" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2446">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:2">
+      <c r="A2447" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2447">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2">
+      <c r="A2448" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2448">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2">
+      <c r="A2449" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2449">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2">
+      <c r="A2450" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2450">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:2">
+      <c r="A2451" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2451">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:2">
+      <c r="A2452" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2452">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:2">
+      <c r="A2453" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2453">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:2">
+      <c r="A2454" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2454">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:2">
+      <c r="A2455" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2455">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:2">
+      <c r="A2456" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2456">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:2">
+      <c r="A2457" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2457">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:2">
+      <c r="A2458" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2458">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:2">
+      <c r="A2459" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2459">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:2">
+      <c r="A2460" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2460">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:2">
+      <c r="A2461" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2461">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:2">
+      <c r="A2462" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2462">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:2">
+      <c r="A2463" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2463">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:2">
+      <c r="A2464" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2464">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:2">
+      <c r="A2465" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2465">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:2">
+      <c r="A2466" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2466">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2">
+      <c r="A2467" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2467">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:2">
+      <c r="A2468" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2468">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:2">
+      <c r="A2469" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2469">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:2">
+      <c r="A2470" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2470">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:2">
+      <c r="A2471" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2471">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:2">
+      <c r="A2472" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2472">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2">
+      <c r="A2473" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2473">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:2">
+      <c r="A2474" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2474">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:2">
+      <c r="A2475" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2475">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:2">
+      <c r="A2476" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2476">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:2">
+      <c r="A2477" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2477">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:2">
+      <c r="A2478" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2478">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:2">
+      <c r="A2479" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2479">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2">
+      <c r="A2480" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2480">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:2">
+      <c r="A2481" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2481">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:2">
+      <c r="A2482" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2482">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2">
+      <c r="A2483" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2483">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:2">
+      <c r="A2484" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2484">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2">
+      <c r="A2485" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2485">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2">
+      <c r="A2486" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2486">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2">
+      <c r="A2487" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2487">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2">
+      <c r="A2488" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2488">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2">
+      <c r="A2489" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2489">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:2">
+      <c r="A2490" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2490">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2">
+      <c r="A2491" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2491">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2">
+      <c r="A2492" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2492">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:2">
+      <c r="A2493" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2493">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:2">
+      <c r="A2494" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2494">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:2">
+      <c r="A2495" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2495">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:2">
+      <c r="A2496" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2496">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:2">
+      <c r="A2497" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2497">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:2">
+      <c r="A2498" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2498">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:2">
+      <c r="A2499" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2499">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:2">
+      <c r="A2500" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2500">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:2">
+      <c r="A2501" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2501">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:2">
+      <c r="A2502" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2502">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2">
+      <c r="A2503" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2503">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2">
+      <c r="A2504" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2504">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:2">
+      <c r="A2505" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2505">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:2">
+      <c r="A2506" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2506">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:2">
+      <c r="A2507" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2507">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:2">
+      <c r="A2508" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2508">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:2">
+      <c r="A2509" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2509">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:2">
+      <c r="A2510" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2510">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:2">
+      <c r="A2511" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2511">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:2">
+      <c r="A2512" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2512">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:2">
+      <c r="A2513" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2513">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:2">
+      <c r="A2514" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2514">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:2">
+      <c r="A2515" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2515">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:2">
+      <c r="A2516" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2516">
         <v>169649000000</v>
       </c>
     </row>
